--- a/www/terminologies/ValueSet-JDV-J154-TypeGlucose-ENS.xlsx
+++ b/www/terminologies/ValueSet-JDV-J154-TypeGlucose-ENS.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20240927120000</t>
+    <t>20250425120000</t>
   </si>
   <si>
     <t>Name</t>
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-27T12:00:00+01:00</t>
+    <t>2025-04-25T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -73,6 +73,12 @@
     <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris</t>
   </si>
   <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -97,13 +103,13 @@
     <t>2345-7</t>
   </si>
   <si>
-    <t>Glucose</t>
+    <t>Glucose [Masse/Volume] Sérum/Plasma ; Numérique</t>
   </si>
   <si>
     <t>4548-4</t>
   </si>
   <si>
-    <t>Hémoglobine A1c %</t>
+    <t>Hémoglobine A1c/hémoglobine totale [Fraction massique] Sang ; Numérique</t>
   </si>
   <si>
     <t/>
@@ -113,12 +119,6 @@
   </si>
   <si>
     <t>http://loinc.org</t>
-  </si>
-  <si>
-    <t>MED-969</t>
-  </si>
-  <si>
-    <t>Glucose interstitiel</t>
   </si>
   <si>
     <t>MED-972</t>
@@ -261,7 +261,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -361,20 +361,28 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>24</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -396,42 +404,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -441,7 +449,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -453,41 +461,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s" s="2">
         <v>37</v>
       </c>
     </row>

--- a/www/terminologies/ValueSet-JDV-J154-TypeGlucose-ENS.xlsx
+++ b/www/terminologies/ValueSet-JDV-J154-TypeGlucose-ENS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>Property</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250425120000</t>
+    <t>20250728120000</t>
   </si>
   <si>
     <t>Name</t>
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-25T12:00:00+01:00</t>
+    <t>2025-07-23T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -112,6 +112,12 @@
     <t>Hémoglobine A1c/hémoglobine totale [Fraction massique] Sang ; Numérique</t>
   </si>
   <si>
+    <t>99504-3</t>
+  </si>
+  <si>
+    <t>Glucose [Masse/Volume] Liquide interstitiel ; Numérique</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -127,7 +133,7 @@
     <t>Index de gestion de glycémie (IGG)</t>
   </si>
   <si>
-    <t>https://smt.esante.gouv.fr/fhir/CodeSystem/1.2.250.1.213.1.1.4.322</t>
+    <t>https://smt.esante.gouv.fr/fhir/CodeSystem/terminologie-cisis</t>
   </si>
 </sst>
 </file>
@@ -392,7 +398,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,15 +437,23 @@
         <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -469,26 +483,26 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
